--- a/test_case/cash_payments/Filters.xlsx
+++ b/test_case/cash_payments/Filters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PNT SQA\Project\ai-quizwhiz.zluck.com-pnt-b24\test_case\cash_payments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B67B88D-207A-444D-B9E6-D8BB4387D2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5519B6A4-4226-454A-857C-6912F67152F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>*****</t>
-  </si>
-  <si>
-    <t>Test Scenario: Feedback APP API(positive)</t>
   </si>
   <si>
     <t>1. needs to have the browser install 
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>The list shows a "No records found" message. The counter shows "Showing 0 results".</t>
+  </si>
+  <si>
+    <t>Test Scenario: Feedback Filters (positive)</t>
   </si>
 </sst>
 </file>
@@ -354,6 +354,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -371,12 +377,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1235,7 +1235,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1251,15 +1251,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>9</v>
+      <c r="A1" s="12" t="s">
+        <v>34</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1281,13 +1281,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1352,19 +1352,19 @@
     </row>
     <row r="4" spans="1:26" ht="177" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>7</v>
@@ -1394,19 +1394,19 @@
     </row>
     <row r="5" spans="1:26" ht="167" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>7</v>
@@ -1436,19 +1436,19 @@
     </row>
     <row r="6" spans="1:26" ht="188" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>7</v>
@@ -1477,20 +1477,20 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="188" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="D7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>7</v>
@@ -1519,20 +1519,20 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="188" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="C8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>7</v>
